--- a/input_excel/cafr_2020.xlsx
+++ b/input_excel/cafr_2020.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbao/Documents/PyCharm/Colin-Project/input_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/Colin-Project/output_pdf_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8587B-9A18-664B-A3A9-5EE1AFB50D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10CA2E-8669-8043-B222-E92D24BE3332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset Allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="115-1" sheetId="1" r:id="rId1"/>
     <sheet name="116-1" sheetId="2" r:id="rId2"/>
     <sheet name="117-1" sheetId="3" r:id="rId3"/>
     <sheet name="118-1" sheetId="4" r:id="rId4"/>
     <sheet name="118-2" sheetId="5" r:id="rId5"/>
     <sheet name="119-1" sheetId="6" r:id="rId6"/>
-    <sheet name="120-1" sheetId="7" r:id="rId7"/>
+    <sheet name="TOTAL TIME WEIGHTED RETURNS" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,6 +31,9 @@
     <t>Investment	Section</t>
   </si>
   <si>
+    <t>Table	1: Asset	Allocation	as	of	August	31,	2020</t>
+  </si>
+  <si>
     <t>Policy	Range</t>
   </si>
   <si>
@@ -1798,10 +1801,6 @@
   </si>
   <si>
     <t>8.4	%</t>
-  </si>
-  <si>
-    <t>Table	1: Asset	Allocation	as	of	August	31,	2020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2175,9 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -2217,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2225,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2236,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2250,22 +2247,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2281,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2289,25 +2286,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2315,22 +2312,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2338,22 +2335,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2361,22 +2358,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2384,25 +2381,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2410,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2418,25 +2415,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2444,22 +2441,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2467,22 +2464,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2490,25 +2487,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2516,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2524,25 +2521,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2550,7 +2547,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2558,22 +2555,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2581,22 +2578,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2604,25 +2601,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2630,25 +2627,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2656,7 +2653,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2664,25 +2661,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2690,22 +2687,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2713,19 +2710,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2733,19 +2730,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2753,7 +2750,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2761,13 +2758,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2775,10 +2772,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2786,10 +2783,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2797,10 +2794,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2808,10 +2805,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2819,10 +2816,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2830,13 +2827,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2844,13 +2841,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2858,7 +2855,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2911,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2922,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2930,22 +2927,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2953,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2961,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2969,25 +2966,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2995,22 +2992,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3018,22 +3015,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3041,22 +3038,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3064,22 +3061,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3087,25 +3084,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3113,7 +3110,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3121,25 +3118,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3147,22 +3144,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3170,22 +3167,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3193,25 +3190,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3219,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3227,25 +3224,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3253,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3261,22 +3258,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3284,22 +3281,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3307,25 +3304,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3333,22 +3330,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3356,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3364,22 +3361,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3387,25 +3384,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3413,7 +3410,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3421,22 +3418,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3444,25 +3441,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3470,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3478,7 +3475,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3486,7 +3483,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3494,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3544,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3555,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3563,22 +3560,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3586,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3594,7 +3591,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3602,22 +3599,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3625,22 +3622,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3648,22 +3645,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3671,22 +3668,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3694,22 +3691,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3717,22 +3714,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3740,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3748,22 +3745,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3771,22 +3768,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" t="s">
         <v>270</v>
       </c>
-      <c r="F16" t="s">
-        <v>269</v>
-      </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3794,22 +3791,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3817,22 +3814,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3840,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3848,22 +3845,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3871,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3879,22 +3876,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3902,22 +3899,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3925,22 +3922,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3948,22 +3945,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3971,7 +3968,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3979,22 +3976,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4002,22 +3999,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4025,7 +4022,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4033,22 +4030,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4056,22 +4053,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4079,7 +4076,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4087,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4095,7 +4092,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4103,7 +4100,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4150,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4158,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4166,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4174,7 +4171,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4182,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4190,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4198,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4209,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4217,10 +4214,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4228,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4236,10 +4233,10 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4247,19 +4244,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4267,19 +4264,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4287,19 +4284,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4307,19 +4304,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4327,19 +4324,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4347,19 +4344,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" t="s">
         <v>335</v>
-      </c>
-      <c r="D19" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4367,19 +4364,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4387,19 +4384,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4407,19 +4404,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4427,19 +4424,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4447,19 +4444,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4467,16 +4464,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4484,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4498,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4506,10 +4503,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4517,7 +4514,7 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4525,7 +4522,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4533,7 +4530,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4541,7 +4538,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4549,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4557,10 +4554,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4568,7 +4565,7 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4576,10 +4573,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4587,19 +4584,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4607,19 +4604,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4627,19 +4624,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4647,19 +4644,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4667,19 +4664,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F41" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4687,19 +4684,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E42" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4707,19 +4704,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4727,19 +4724,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4747,19 +4744,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" t="s">
         <v>398</v>
-      </c>
-      <c r="D45" t="s">
-        <v>399</v>
-      </c>
-      <c r="E45" t="s">
-        <v>400</v>
-      </c>
-      <c r="F45" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4767,19 +4764,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E46" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4787,19 +4784,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
+        <v>406</v>
+      </c>
+      <c r="D47" t="s">
+        <v>407</v>
+      </c>
+      <c r="E47" t="s">
+        <v>408</v>
+      </c>
+      <c r="F47" t="s">
         <v>405</v>
-      </c>
-      <c r="D47" t="s">
-        <v>406</v>
-      </c>
-      <c r="E47" t="s">
-        <v>407</v>
-      </c>
-      <c r="F47" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4807,16 +4804,16 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D48" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4855,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4866,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4874,10 +4871,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4885,19 +4882,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4905,19 +4902,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4925,19 +4922,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4945,19 +4942,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4965,19 +4962,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4985,19 +4982,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5005,19 +5002,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5025,19 +5022,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5045,19 +5042,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F13" t="s">
         <v>398</v>
-      </c>
-      <c r="D13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5065,19 +5062,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5085,19 +5082,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" t="s">
         <v>405</v>
-      </c>
-      <c r="D15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5105,16 +5102,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5122,13 +5119,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5171,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5179,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5187,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5195,7 +5192,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5203,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5211,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5219,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5227,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5235,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5243,7 +5240,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5251,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5259,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5267,7 +5264,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5275,7 +5272,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5283,7 +5280,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5291,7 +5288,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5299,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5307,7 +5304,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5315,7 +5312,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5323,7 +5320,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5331,7 +5328,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5339,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5347,7 +5344,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5355,7 +5352,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5363,7 +5360,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5371,7 +5368,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5379,7 +5376,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5387,7 +5384,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5395,7 +5392,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5403,7 +5400,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5411,7 +5408,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5419,7 +5416,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5427,7 +5424,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5435,7 +5432,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5443,7 +5440,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5451,7 +5448,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5459,7 +5456,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5467,7 +5464,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5475,7 +5472,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5483,7 +5480,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5491,7 +5488,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5499,7 +5496,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5507,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5515,7 +5512,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5523,7 +5520,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5531,7 +5528,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5539,7 +5536,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5552,7 +5549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -5578,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5589,19 +5588,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5609,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5617,19 +5616,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5637,19 +5636,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5657,19 +5656,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5677,19 +5676,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5697,19 +5696,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5717,19 +5716,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5737,19 +5736,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5757,19 +5756,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5777,19 +5776,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5797,19 +5796,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5817,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5825,19 +5824,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5845,19 +5844,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5865,19 +5864,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5885,19 +5884,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5905,19 +5904,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5925,19 +5924,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5945,19 +5944,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5965,19 +5964,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5985,7 +5984,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5993,19 +5992,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6013,19 +6012,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6033,19 +6032,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6053,7 +6052,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6061,19 +6060,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C29" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6081,19 +6080,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6101,19 +6100,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C31" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F31" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6121,19 +6120,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F32" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6141,19 +6140,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6161,19 +6160,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D34" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E34" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6181,19 +6180,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C35" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D35" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E35" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6201,7 +6200,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6209,19 +6208,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D37" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E37" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F37" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6229,19 +6228,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F38" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6249,7 +6248,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6257,19 +6256,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6277,19 +6276,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C41" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
